--- a/module/data/Literature_data.xlsx
+++ b/module/data/Literature_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valentinallard/FEA_bone/module/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A788835-54EE-D445-BDF0-D6651B654871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482368F6-5801-AF40-A524-3FDD444731CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19960" windowHeight="16640" activeTab="3" xr2:uid="{37437B81-F506-E949-AB19-1D490FFA1084}"/>
   </bookViews>
